--- a/Data/Processing/2024-02-02/AMBUJACEM.xlsx
+++ b/Data/Processing/2024-02-02/AMBUJACEM.xlsx
@@ -3213,7 +3213,7 @@
         <v>45041</v>
       </c>
       <c r="B54">
-        <v>377.24</v>
+        <v>377.25</v>
       </c>
       <c r="C54">
         <v>383.08</v>
@@ -3240,10 +3240,10 @@
         <v>1.52</v>
       </c>
       <c r="K54">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="L54">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M54">
         <v>-1.3</v>
